--- a/budget/budget2022.xlsx
+++ b/budget/budget2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00353BCC-FA0F-F540-BF11-AA98C175EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6027F0-433B-4A43-8329-CB7676B573FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -116,6 +116,69 @@
   </si>
   <si>
     <t>Støtte søgt (rundet ned)</t>
+  </si>
+  <si>
+    <t>*Støttet af NovoNordisk</t>
+  </si>
+  <si>
+    <t>Tilbage til efterårssemesteret</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.05</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.04</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.03</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.02</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.01</t>
+  </si>
+  <si>
+    <t>Udgifter</t>
+  </si>
+  <si>
+    <t>Støtte fra PROSA</t>
+  </si>
+  <si>
+    <t>Start kapital</t>
+  </si>
+  <si>
+    <t>Indtægter</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022-F</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.07</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.08</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.09</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.10</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.11</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022.12</t>
+  </si>
+  <si>
+    <t>Lille Kat 2022-S</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -124,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;kr.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kr.&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,8 +221,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +272,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -419,22 +537,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,15 +619,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -470,6 +633,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,15 +653,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -825,26 +1017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1010,42 +1202,42 @@
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
         <f>SUM(C4:C8)</f>
         <v>200</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <f>SUM(D4:D8)</f>
         <v>254</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
         <v>4750</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="23">
         <v>1</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <f>95*B12</f>
         <v>95</v>
       </c>
@@ -1055,258 +1247,258 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>1</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>2</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <f>130*B15</f>
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>1</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>2</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <f>105*B17</f>
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>1</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>2</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="24">
         <f>110*B19</f>
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>2</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20">
         <v>24</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <f>130*B20</f>
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>1</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <v>29</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="28">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="29">
         <f>SUM(B12:B21)</f>
         <v>14</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31">
         <f>SUM(D12:D21)</f>
         <v>1680</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="23">
         <v>1</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="24">
         <f>95*B25</f>
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="24">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="25">
+      <c r="B27" s="23">
         <v>2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="24">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="25">
+      <c r="B28" s="23">
         <v>3</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="24">
         <f>130*B28</f>
         <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>1</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="24">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="25">
+      <c r="B30" s="23">
         <v>3</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="24">
         <f>105*B30</f>
         <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="25">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31">
         <v>12</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="24">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="25">
+      <c r="B32" s="23">
         <v>3</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="24">
         <f>110*B32</f>
         <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="25">
+      <c r="B33" s="23">
         <v>2</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33">
         <v>24</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="24">
         <f>130*B33</f>
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="29">
+      <c r="B34" s="26">
         <v>1</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="27">
         <v>29</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="28">
         <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="29">
         <f>SUM(B25:B34)</f>
         <v>19</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31">
         <f>SUM(D25:D34)</f>
         <v>2025</v>
       </c>
@@ -1325,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,31 +1533,34 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1573,7 @@
       <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="61" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1390,8 +1585,16 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="N3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1402,25 +1605,33 @@
         <f>80*1.2</f>
         <v>96</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>110</v>
       </c>
       <c r="E4" s="4">
         <f>C4/2.8</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="33">
         <v>150</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="35">
         <v>50</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="37">
         <f>E4*F4</f>
         <v>5142.8571428571431</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="N4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1438,18 +1649,31 @@
         <f>C5/2.8</f>
         <v>21.857142857142858</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="33">
         <v>150</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="35">
         <v>50</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="37">
         <f>E5*F5+G5</f>
         <v>3328.5714285714284</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="58">
+        <f>O18</f>
+        <v>7873.75</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="58">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1466,17 +1690,30 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="49">
+        <f>4000</f>
+        <v>4000</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="49">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1487,25 +1724,39 @@
         <f>56*1.2</f>
         <v>67.2</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
         <f>C7/2.8</f>
         <v>24.000000000000004</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="33">
         <v>150</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="35">
         <v>50</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="37">
         <f>E7*F7+G7</f>
         <v>3650.0000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="56">
+        <f>SUM(L5+L6)</f>
+        <v>11873.75</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="56">
+        <f>SUM(O5+O6)</f>
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1516,23 +1767,23 @@
         <f>30*1.2</f>
         <v>36</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1543,61 +1794,190 @@
         <f>33*1.2</f>
         <v>39.6</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4">
         <f>C9/2.8</f>
         <v>14.142857142857144</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="34">
         <v>150</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="36">
         <v>50</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="38">
         <f>F9*E9+G9</f>
         <v>2171.4285714285716</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="N9" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="47">
+      <c r="B10" s="20"/>
+      <c r="C10" s="39">
         <f>SUM(C4:C9)</f>
         <v>340.8</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
         <f>SUM(H4:H9)</f>
         <v>14292.857142857145</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="51">
+        <v>7908</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="51">
+        <v>501.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22">
+      <c r="B11" s="20"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
         <f>H10-292.86</f>
         <v>13999.997142857144</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="K11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="51">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="51">
+        <v>2611.1999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K13" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K14" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="51">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K15" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="49">
+        <v>0</v>
+      </c>
+      <c r="N15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="49">
+        <v>584.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="47">
+        <f>SUM(L10:L15)</f>
+        <v>7908</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="47">
+        <f>SUM(O10:O15)</f>
+        <v>6676.25</v>
+      </c>
+    </row>
+    <row r="17" spans="11:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="11:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="45">
+        <f>L7-L16</f>
+        <v>3965.75</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="45">
+        <f>O7-O16</f>
+        <v>7873.75</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K20" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/budget/budget2022.xlsx
+++ b/budget/budget2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6027F0-433B-4A43-8329-CB7676B573FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F18E3C-2701-EE4F-B7A7-4D984E8BF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="11060" yWindow="500" windowWidth="14540" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kr.&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +252,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -590,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -641,6 +648,28 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,35 +682,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117A488-0249-9540-9962-645D5D55DAA6}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
@@ -1017,26 +1028,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1221,10 +1232,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1365,10 +1376,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1517,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,26 +1550,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1573,7 +1584,7 @@
       <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1585,14 +1596,14 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="N3" s="60" t="s">
+      <c r="L3" s="65"/>
+      <c r="N3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1622,14 +1633,14 @@
         <f>E4*F4</f>
         <v>5142.8571428571431</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="N4" s="55" t="s">
+      <c r="L4" s="63"/>
+      <c r="N4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1659,17 +1670,17 @@
         <f>E5*F5+G5</f>
         <v>3328.5714285714284</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="52">
         <f>O18</f>
         <v>7873.75</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="52">
         <v>10000</v>
       </c>
     </row>
@@ -1699,17 +1710,17 @@
       <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="45">
         <f>4000</f>
         <v>4000</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="45">
         <v>4550</v>
       </c>
     </row>
@@ -1721,15 +1732,15 @@
         <v>44862</v>
       </c>
       <c r="C7" s="4">
-        <f>56*1.2</f>
-        <v>67.2</v>
+        <f>50*1.5</f>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
-        <f>C7/2.8</f>
-        <v>24.000000000000004</v>
+        <f>C7/2</f>
+        <v>37.5</v>
       </c>
       <c r="F7" s="33">
         <v>150</v>
@@ -1739,19 +1750,19 @@
       </c>
       <c r="H7" s="37">
         <f>E7*F7+G7</f>
-        <v>3650.0000000000005</v>
-      </c>
-      <c r="K7" s="48" t="s">
+        <v>5675</v>
+      </c>
+      <c r="K7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="50">
         <f>SUM(L5+L6)</f>
         <v>11873.75</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="50">
         <f>SUM(O5+O6)</f>
         <v>14550</v>
       </c>
@@ -1811,14 +1822,14 @@
         <f>F9*E9+G9</f>
         <v>2171.4285714285716</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="N9" s="55" t="s">
+      <c r="L9" s="63"/>
+      <c r="N9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="63"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1827,7 +1838,7 @@
       <c r="B10" s="20"/>
       <c r="C10" s="39">
         <f>SUM(C4:C9)</f>
-        <v>340.8</v>
+        <v>348.6</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1835,18 +1846,18 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21">
         <f>SUM(H4:H9)</f>
-        <v>14292.857142857145</v>
-      </c>
-      <c r="K10" s="52" t="s">
+        <v>16317.857142857145</v>
+      </c>
+      <c r="K10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="47">
         <v>7908</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="47">
         <v>501.3</v>
       </c>
     </row>
@@ -1862,110 +1873,123 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21">
         <f>H10-292.86</f>
-        <v>13999.997142857144</v>
-      </c>
-      <c r="K11" s="52" t="s">
+        <v>16024.997142857144</v>
+      </c>
+      <c r="K11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="47">
         <v>0</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="47">
         <v>2611.1999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="L13" s="49"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K14" s="52" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="56"/>
+      <c r="K14" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="47">
         <v>0</v>
       </c>
-      <c r="N14" s="52" t="s">
+      <c r="N14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="47">
         <v>2979</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K15" s="50" t="s">
+      <c r="A15" s="57"/>
+      <c r="K15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="45">
         <v>0</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="45">
         <v>584.75</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="48" t="s">
+      <c r="A16" s="57"/>
+      <c r="K16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="43">
         <f>SUM(L10:L15)</f>
         <v>7908</v>
       </c>
-      <c r="N16" s="48" t="s">
+      <c r="N16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="43">
         <f>SUM(O10:O15)</f>
         <v>6676.25</v>
       </c>
     </row>
-    <row r="17" spans="11:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="11:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="46" t="s">
+    <row r="17" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+    </row>
+    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="41">
         <f>L7-L16</f>
         <v>3965.75</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="41">
         <f>O7-O16</f>
         <v>7873.75</v>
       </c>
     </row>
-    <row r="19" spans="11:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.2">
-      <c r="K20" s="44" t="s">
+    <row r="19" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N21" s="40" t="s">
         <v>27</v>
       </c>
     </row>

--- a/budget/budget2022.xlsx
+++ b/budget/budget2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F18E3C-2701-EE4F-B7A7-4D984E8BF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FEC5CC-5209-2746-AED3-EFDF79F18AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="500" windowWidth="14540" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t>Støtte fra DDSA</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="111" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,12 +1713,11 @@
       <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="45">
-        <f>4000</f>
-        <v>4000</v>
+      <c r="K6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="52">
+        <v>10000</v>
       </c>
       <c r="N6" s="51" t="s">
         <v>36</v>
@@ -1752,12 +1754,12 @@
         <f>E7*F7+G7</f>
         <v>5675</v>
       </c>
-      <c r="K7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="50">
-        <f>SUM(L5+L6)</f>
-        <v>11873.75</v>
+      <c r="K7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="45">
+        <f>4000</f>
+        <v>4000</v>
       </c>
       <c r="N7" s="44" t="s">
         <v>14</v>
@@ -1767,7 +1769,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1793,8 +1795,15 @@
       <c r="H8" s="37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="50">
+        <f>SUM(L5:L7)</f>
+        <v>21873.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1822,10 +1831,6 @@
         <f>F9*E9+G9</f>
         <v>2171.4285714285716</v>
       </c>
-      <c r="K9" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="63"/>
       <c r="N9" s="62" t="s">
         <v>35</v>
       </c>
@@ -1848,12 +1853,10 @@
         <f>SUM(H4:H9)</f>
         <v>16317.857142857145</v>
       </c>
-      <c r="K10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="47">
-        <v>7908</v>
-      </c>
+      <c r="K10" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="63"/>
       <c r="N10" s="48" t="s">
         <v>34</v>
       </c>
@@ -1876,10 +1879,10 @@
         <v>16024.997142857144</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="47">
-        <v>0</v>
+        <v>7908</v>
       </c>
       <c r="N11" s="48" t="s">
         <v>33</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="12" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="K12" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="L12" s="47">
+        <v>0</v>
       </c>
       <c r="N12" s="48" t="s">
         <v>32</v>
@@ -1904,9 +1907,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K13" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>31</v>
+      </c>
       <c r="N13" s="48"/>
       <c r="O13" s="49"/>
     </row>
@@ -1916,10 +1921,10 @@
       <c r="C14" s="40"/>
       <c r="D14" s="56"/>
       <c r="K14" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="47">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="L14" s="49">
+        <v>7182</v>
       </c>
       <c r="N14" s="48" t="s">
         <v>30</v>
@@ -1930,10 +1935,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
-      <c r="K15" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="45">
+      <c r="K15" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="47">
         <v>0</v>
       </c>
       <c r="N15" s="46" t="s">
@@ -1945,12 +1950,11 @@
     </row>
     <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
-      <c r="K16" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="43">
-        <f>SUM(L10:L15)</f>
-        <v>7908</v>
+      <c r="K16" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0</v>
       </c>
       <c r="N16" s="44" t="s">
         <v>14</v>
@@ -1960,17 +1964,17 @@
         <v>6676.25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
-    </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="41">
-        <f>L7-L16</f>
-        <v>3965.75</v>
-      </c>
+      <c r="K17" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="43">
+        <f>SUM(L11:L16)</f>
+        <v>15090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N18" s="42" t="s">
         <v>28</v>
       </c>
@@ -1979,17 +1983,28 @@
         <v>7873.75</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
+    <row r="19" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="41">
+        <f>L8-L17</f>
+        <v>6783.75</v>
+      </c>
       <c r="N19" s="54"/>
       <c r="O19" s="55"/>
     </row>
+    <row r="20" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="54"/>
+      <c r="L20" s="55"/>
+    </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K21" s="40" t="s">
+      <c r="N21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="40" t="s">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2001,7 +2016,7 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/budget/budget2022.xlsx
+++ b/budget/budget2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FEC5CC-5209-2746-AED3-EFDF79F18AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BC61A-D597-4E4C-9978-1E710EFEAD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="500" windowWidth="14540" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t>Lillekat2022-09</t>
-  </si>
-  <si>
-    <t>Lillekat2022-10</t>
-  </si>
-  <si>
-    <t>Lillekat2022-11</t>
   </si>
   <si>
     <t>Lillekat 2023 budget</t>
@@ -600,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -643,13 +637,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -669,8 +659,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,26 +1019,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1235,10 +1223,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
@@ -1379,10 +1367,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1531,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="111" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="135" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,26 +1541,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="A1" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
@@ -1587,7 +1575,7 @@
       <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -1599,14 +1587,14 @@
       <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="65"/>
-      <c r="N3" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="65"/>
+      <c r="K3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="N3" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1620,30 +1608,30 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4">
         <f>C4/2.8</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>150</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>50</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="34">
         <f>E4*F4</f>
         <v>5142.8571428571431</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="63"/>
-      <c r="N4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="63"/>
+      <c r="K4" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="N4" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1656,34 +1644,34 @@
         <f>51*1.2</f>
         <v>61.199999999999996</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5">
+        <v>73</v>
       </c>
       <c r="E5" s="4">
         <f>C5/2.8</f>
         <v>21.857142857142858</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>150</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>50</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <f>E5*F5+G5</f>
         <v>3328.5714285714284</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="52">
+      <c r="K5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="48">
         <f>O18</f>
         <v>7873.75</v>
       </c>
-      <c r="N5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="52">
+      <c r="N5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="48">
         <v>10000</v>
       </c>
     </row>
@@ -1698,31 +1686,31 @@
         <f>34*1.2</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="D6">
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="52">
+      <c r="K6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="48">
         <v>10000</v>
       </c>
-      <c r="N6" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="45">
+      <c r="N6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="41">
         <v>4550</v>
       </c>
     </row>
@@ -1737,286 +1725,229 @@
         <f>50*1.5</f>
         <v>75</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="D7">
+        <v>60</v>
       </c>
       <c r="E7" s="4">
         <f>C7/2</f>
         <v>37.5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>150</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>50</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <f>E7*F7+G7</f>
         <v>5675</v>
       </c>
-      <c r="K7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="45">
+      <c r="K7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="41">
         <f>4000</f>
         <v>4000</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="46">
         <f>SUM(O5+O6)</f>
         <v>14550</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44876</v>
-      </c>
-      <c r="C8" s="4">
-        <f>30*1.2</f>
-        <v>36</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="44" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="50">
+      <c r="B8" s="20"/>
+      <c r="C8" s="35">
+        <f>SUM(C4:C7)</f>
+        <v>273</v>
+      </c>
+      <c r="D8" s="20">
+        <f>SUM(D4:D7)</f>
+        <v>336</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
+        <f>SUM(H4:H7)</f>
+        <v>14146.428571428572</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="46">
         <f>SUM(L5:L7)</f>
         <v>21873.75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11">
-        <v>44890</v>
-      </c>
-      <c r="C9" s="13">
-        <f>33*1.2</f>
-        <v>39.6</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <f>C9/2.8</f>
-        <v>14.142857142857144</v>
-      </c>
-      <c r="F9" s="34">
-        <v>150</v>
-      </c>
-      <c r="G9" s="36">
-        <v>50</v>
-      </c>
-      <c r="H9" s="38">
-        <f>F9*E9+G9</f>
-        <v>2171.4285714285716</v>
-      </c>
-      <c r="N9" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="63"/>
-    </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <f>H8-292.86</f>
+        <v>13853.568571428572</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="57"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="N10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="43">
+        <v>501.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="43">
+        <v>7908</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="43">
+        <v>2611.1999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="50"/>
+      <c r="K12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="K13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="K14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="45">
+        <v>7182</v>
+      </c>
+      <c r="N14" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="43">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="K15" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="43">
+        <v>0</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="41">
+        <v>584.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="41">
+        <v>0</v>
+      </c>
+      <c r="N16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="39">
-        <f>SUM(C4:C9)</f>
-        <v>348.6</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
-        <f>SUM(H4:H9)</f>
-        <v>16317.857142857145</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="63"/>
-      <c r="N10" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="47">
-        <v>501.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
-        <f>H10-292.86</f>
-        <v>16024.997142857144</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="47">
-        <v>7908</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="47">
-        <v>2611.1999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="47">
-        <v>0</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K13" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="56"/>
-      <c r="K14" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="49">
-        <v>7182</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="47">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="K15" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="47">
-        <v>0</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="45">
-        <v>584.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="K16" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="45">
-        <v>0</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="43">
+      <c r="O16" s="39">
         <f>SUM(O10:O15)</f>
         <v>6676.25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="K17" s="44" t="s">
+    <row r="17" spans="11:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="39">
         <f>SUM(L11:L16)</f>
         <v>15090</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="41">
+    <row r="18" spans="11:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="37">
         <f>O7-O16</f>
         <v>7873.75</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="41">
+    <row r="19" spans="11:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="37">
         <f>L8-L17</f>
         <v>6783.75</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-    </row>
-    <row r="20" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N21" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K22" s="40" t="s">
-        <v>27</v>
+      <c r="N19" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="36" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/budget/budget2022.xlsx
+++ b/budget/budget2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9BC61A-D597-4E4C-9978-1E710EFEAD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE7DC8-EB3C-CA45-9366-4A1CE1B93C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -1002,20 +1002,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117A488-0249-9540-9962-645D5D55DAA6}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+    <sheetView zoomScale="112" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="135" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
